--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Thbs1-Itga6.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Thbs1-Itga6.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>149.656361</v>
+        <v>2.727484333333333</v>
       </c>
       <c r="H2">
-        <v>448.969083</v>
+        <v>8.182453000000001</v>
       </c>
       <c r="I2">
-        <v>0.5921360794347563</v>
+        <v>0.03096049453772388</v>
       </c>
       <c r="J2">
-        <v>0.5921360794347564</v>
+        <v>0.03096049453772388</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>147.4213356666667</v>
+        <v>133.3951123333333</v>
       </c>
       <c r="N2">
-        <v>442.264007</v>
+        <v>400.185337</v>
       </c>
       <c r="O2">
-        <v>0.9507885170992249</v>
+        <v>0.8984588679103155</v>
       </c>
       <c r="P2">
-        <v>0.950788517099225</v>
+        <v>0.8984588679103156</v>
       </c>
       <c r="Q2">
-        <v>22062.54062963284</v>
+        <v>363.8330790324068</v>
       </c>
       <c r="R2">
-        <v>198562.8656666956</v>
+        <v>3274.497711291661</v>
       </c>
       <c r="S2">
-        <v>0.5629961848867208</v>
+        <v>0.02781673087230691</v>
       </c>
       <c r="T2">
-        <v>0.562996184886721</v>
+        <v>0.02781673087230691</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>149.656361</v>
+        <v>2.727484333333333</v>
       </c>
       <c r="H3">
-        <v>448.969083</v>
+        <v>8.182453000000001</v>
       </c>
       <c r="I3">
-        <v>0.5921360794347563</v>
+        <v>0.03096049453772388</v>
       </c>
       <c r="J3">
-        <v>0.5921360794347564</v>
+        <v>0.03096049453772388</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -614,28 +614,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.340788333333333</v>
+        <v>2.340788333333334</v>
       </c>
       <c r="N3">
-        <v>7.022365</v>
+        <v>7.022365000000001</v>
       </c>
       <c r="O3">
-        <v>0.01509682881537203</v>
+        <v>0.01576596023045448</v>
       </c>
       <c r="P3">
-        <v>0.01509682881537203</v>
+        <v>0.01576596023045448</v>
       </c>
       <c r="Q3">
-        <v>350.3138638379216</v>
+        <v>6.384463506816112</v>
       </c>
       <c r="R3">
-        <v>3152.824774541295</v>
+        <v>57.46017156134501</v>
       </c>
       <c r="S3">
-        <v>0.008939377026632051</v>
+        <v>0.0004881219255969578</v>
       </c>
       <c r="T3">
-        <v>0.008939377026632054</v>
+        <v>0.000488121925596958</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>149.656361</v>
+        <v>2.727484333333333</v>
       </c>
       <c r="H4">
-        <v>448.969083</v>
+        <v>8.182453000000001</v>
       </c>
       <c r="I4">
-        <v>0.5921360794347563</v>
+        <v>0.03096049453772388</v>
       </c>
       <c r="J4">
-        <v>0.5921360794347564</v>
+        <v>0.03096049453772388</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>5.289533666666667</v>
+        <v>12.735128</v>
       </c>
       <c r="N4">
-        <v>15.868601</v>
+        <v>38.205384</v>
       </c>
       <c r="O4">
-        <v>0.03411465408540306</v>
+        <v>0.08577517185923002</v>
       </c>
       <c r="P4">
-        <v>0.03411465408540307</v>
+        <v>0.08577517185923003</v>
       </c>
       <c r="Q4">
-        <v>791.6123599403203</v>
+        <v>34.73486210299467</v>
       </c>
       <c r="R4">
-        <v>7124.511239462883</v>
+        <v>312.613758926952</v>
       </c>
       <c r="S4">
-        <v>0.02020051752140346</v>
+        <v>0.002655641739820018</v>
       </c>
       <c r="T4">
-        <v>0.02020051752140347</v>
+        <v>0.002655641739820019</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>158.202374</v>
       </c>
       <c r="I5">
-        <v>0.208649853730866</v>
+        <v>0.5986009007423507</v>
       </c>
       <c r="J5">
-        <v>0.2086498537308661</v>
+        <v>0.5986009007423507</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>147.4213356666667</v>
+        <v>133.3951123333333</v>
       </c>
       <c r="N5">
-        <v>442.264007</v>
+        <v>400.185337</v>
       </c>
       <c r="O5">
-        <v>0.9507885170992249</v>
+        <v>0.8984588679103155</v>
       </c>
       <c r="P5">
-        <v>0.950788517099225</v>
+        <v>0.8984588679103156</v>
       </c>
       <c r="Q5">
-        <v>7774.135093572514</v>
+        <v>7034.474483710005</v>
       </c>
       <c r="R5">
-        <v>69967.21584215263</v>
+        <v>63310.27035339003</v>
       </c>
       <c r="S5">
-        <v>0.1983818850217403</v>
+        <v>0.5378182876110675</v>
       </c>
       <c r="T5">
-        <v>0.1983818850217403</v>
+        <v>0.5378182876110676</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>158.202374</v>
       </c>
       <c r="I6">
-        <v>0.208649853730866</v>
+        <v>0.5986009007423507</v>
       </c>
       <c r="J6">
-        <v>0.2086498537308661</v>
+        <v>0.5986009007423507</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -800,16 +800,16 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.340788333333333</v>
+        <v>2.340788333333334</v>
       </c>
       <c r="N6">
-        <v>7.022365</v>
+        <v>7.022365000000001</v>
       </c>
       <c r="O6">
-        <v>0.01509682881537203</v>
+        <v>0.01576596023045448</v>
       </c>
       <c r="P6">
-        <v>0.01509682881537203</v>
+        <v>0.01576596023045448</v>
       </c>
       <c r="Q6">
         <v>123.4394237882789</v>
@@ -818,10 +818,10 @@
         <v>1110.95481409451</v>
       </c>
       <c r="S6">
-        <v>0.003149951124127298</v>
+        <v>0.00943751799501813</v>
       </c>
       <c r="T6">
-        <v>0.003149951124127299</v>
+        <v>0.009437517995018132</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>158.202374</v>
       </c>
       <c r="I7">
-        <v>0.208649853730866</v>
+        <v>0.5986009007423507</v>
       </c>
       <c r="J7">
-        <v>0.2086498537308661</v>
+        <v>0.5986009007423507</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>5.289533666666667</v>
+        <v>12.735128</v>
       </c>
       <c r="N7">
-        <v>15.868601</v>
+        <v>38.205384</v>
       </c>
       <c r="O7">
-        <v>0.03411465408540306</v>
+        <v>0.08577517185923002</v>
       </c>
       <c r="P7">
-        <v>0.03411465408540307</v>
+        <v>0.08577517185923003</v>
       </c>
       <c r="Q7">
-        <v>278.9389278065305</v>
+        <v>671.5758275979574</v>
       </c>
       <c r="R7">
-        <v>2510.450350258775</v>
+        <v>6044.182448381616</v>
       </c>
       <c r="S7">
-        <v>0.00711801758499844</v>
+        <v>0.05134509513626502</v>
       </c>
       <c r="T7">
-        <v>0.007118017584998442</v>
+        <v>0.05134509513626503</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>50.34932566666667</v>
+        <v>32.63402300000001</v>
       </c>
       <c r="H8">
-        <v>151.047977</v>
+        <v>97.90206900000001</v>
       </c>
       <c r="I8">
-        <v>0.1992140668343777</v>
+        <v>0.3704386047199253</v>
       </c>
       <c r="J8">
-        <v>0.1992140668343777</v>
+        <v>0.3704386047199253</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>147.4213356666667</v>
+        <v>133.3951123333333</v>
       </c>
       <c r="N8">
-        <v>442.264007</v>
+        <v>400.185337</v>
       </c>
       <c r="O8">
-        <v>0.9507885170992249</v>
+        <v>0.8984588679103155</v>
       </c>
       <c r="P8">
-        <v>0.950788517099225</v>
+        <v>0.8984588679103156</v>
       </c>
       <c r="Q8">
-        <v>7422.564839695981</v>
+        <v>4353.219163973585</v>
       </c>
       <c r="R8">
-        <v>66803.08355726385</v>
+        <v>39178.97247576226</v>
       </c>
       <c r="S8">
-        <v>0.1894104471907638</v>
+        <v>0.3328238494269409</v>
       </c>
       <c r="T8">
-        <v>0.1894104471907639</v>
+        <v>0.332823849426941</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>50.34932566666667</v>
+        <v>32.63402300000001</v>
       </c>
       <c r="H9">
-        <v>151.047977</v>
+        <v>97.90206900000001</v>
       </c>
       <c r="I9">
-        <v>0.1992140668343777</v>
+        <v>0.3704386047199253</v>
       </c>
       <c r="J9">
-        <v>0.1992140668343777</v>
+        <v>0.3704386047199253</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -986,28 +986,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>2.340788333333333</v>
+        <v>2.340788333333334</v>
       </c>
       <c r="N9">
-        <v>7.022365</v>
+        <v>7.022365000000001</v>
       </c>
       <c r="O9">
-        <v>0.01509682881537203</v>
+        <v>0.01576596023045448</v>
       </c>
       <c r="P9">
-        <v>0.01509682881537203</v>
+        <v>0.01576596023045448</v>
       </c>
       <c r="Q9">
-        <v>117.8571141117339</v>
+        <v>76.38934030813169</v>
       </c>
       <c r="R9">
-        <v>1060.714027005605</v>
+        <v>687.5040627731852</v>
       </c>
       <c r="S9">
-        <v>0.003007500664612683</v>
+        <v>0.005840320309839388</v>
       </c>
       <c r="T9">
-        <v>0.003007500664612683</v>
+        <v>0.00584032030983939</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>50.34932566666667</v>
+        <v>32.63402300000001</v>
       </c>
       <c r="H10">
-        <v>151.047977</v>
+        <v>97.90206900000001</v>
       </c>
       <c r="I10">
-        <v>0.1992140668343777</v>
+        <v>0.3704386047199253</v>
       </c>
       <c r="J10">
-        <v>0.1992140668343777</v>
+        <v>0.3704386047199253</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>5.289533666666667</v>
+        <v>12.735128</v>
       </c>
       <c r="N10">
-        <v>15.868601</v>
+        <v>38.205384</v>
       </c>
       <c r="O10">
-        <v>0.03411465408540306</v>
+        <v>0.08577517185923002</v>
       </c>
       <c r="P10">
-        <v>0.03411465408540307</v>
+        <v>0.08577517185923003</v>
       </c>
       <c r="Q10">
-        <v>266.3244532077975</v>
+        <v>415.5984600599441</v>
       </c>
       <c r="R10">
-        <v>2396.920078870177</v>
+        <v>3740.386140539497</v>
       </c>
       <c r="S10">
-        <v>0.006796118979001161</v>
+        <v>0.03177443498314497</v>
       </c>
       <c r="T10">
-        <v>0.006796118979001163</v>
+        <v>0.03177443498314497</v>
       </c>
     </row>
   </sheetData>
